--- a/artfynd/A 8818-2025 artfynd.xlsx
+++ b/artfynd/A 8818-2025 artfynd.xlsx
@@ -887,7 +887,7 @@
         <v>129842127</v>
       </c>
       <c r="B4" t="n">
-        <v>102227</v>
+        <v>102430</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 8818-2025 artfynd.xlsx
+++ b/artfynd/A 8818-2025 artfynd.xlsx
@@ -887,7 +887,7 @@
         <v>129842127</v>
       </c>
       <c r="B4" t="n">
-        <v>102430</v>
+        <v>102431</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
